--- a/biology/Zoologie/Alburnus_qalilus/Alburnus_qalilus.xlsx
+++ b/biology/Zoologie/Alburnus_qalilus/Alburnus_qalilus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alburnus qalilus (Syrian spotted bleak en anglais[2]) est un poisson d'eau douce de la famille des Cyprinidae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alburnus qalilus (Syrian spotted bleak en anglais) est un poisson d'eau douce de la famille des Cyprinidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alburnus qalilus est endémique de Syrie où cette espèce se rencontre dans le Nahr al-Kabir, le Nahr al-Sanawbar et le Nahr al-Hawaiz[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alburnus qalilus est endémique de Syrie où cette espèce se rencontre dans le Nahr al-Kabir, le Nahr al-Sanawbar et le Nahr al-Hawaiz.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taille maximale connue pour Alburnus qalilus est de 94 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille maximale connue pour Alburnus qalilus est de 94 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique, qalilus, dérivant du mot arabe qalil qui signifie « peu », lui a été donné en référence aux faibles nombres d'écailles présentes sur sa ligne latérale et de rayons à sa nageoire anale[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, qalilus, dérivant du mot arabe qalil qui signifie « peu », lui a été donné en référence aux faibles nombres d'écailles présentes sur sa ligne latérale et de rayons à sa nageoire anale.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Krupp, 1992 : Two new species of cyprinid fishes from the Mediterranean coastal drainage basin of Syria (Pisces: Osteichthyes: Cyprinidae). Senckenbergiana Biologica, vol. 72, n. 1/3, p. 19-25[5] (texte intégral).</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Krupp, 1992 : Two new species of cyprinid fishes from the Mediterranean coastal drainage basin of Syria (Pisces: Osteichthyes: Cyprinidae). Senckenbergiana Biologica, vol. 72, n. 1/3, p. 19-25 (texte intégral).</t>
         </is>
       </c>
     </row>
